--- a/Παραδειγμα τελικη μορφηΤΜΗΜΑ.xlsx
+++ b/Παραδειγμα τελικη μορφηΤΜΗΜΑ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\15.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\15.7ΝΕΟ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210BB3C3-4963-45ED-9023-03500846CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0EE93-2449-472D-A746-51169E9BACCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>ΚΑΛΗ ΓΝΩΣΗ ΕΛΛΗΝΙΚΩΝ</t>
   </si>
   <si>
-    <t>ΦΙΛΙΑ</t>
-  </si>
-  <si>
     <t>ΣΥΓΚΡΟΥΣΗ</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>ΤΜΗΜΑ</t>
+  </si>
+  <si>
+    <t>ΦΙΛΟΙ</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,16 +624,16 @@
         <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
